--- a/biology/Zoologie/Pierre_Joseph_Bonnaterre/Pierre_Joseph_Bonnaterre.xlsx
+++ b/biology/Zoologie/Pierre_Joseph_Bonnaterre/Pierre_Joseph_Bonnaterre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'abbé Pierre Joseph Bonnaterre est un naturaliste français, né vers 1752 et mort le 20 septembre 1804.
 Prêtre dans le Rouergue, il enseigna l'histoire naturelle à Rodez.
@@ -515,7 +527,9 @@
           <t>Liste partielle de ses publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Tableau encyclopédique et méthodique des trois règnes de la nature, dix-huitième partie, insectes. Agasse, Paris 1797.
 Recueil de médecine vétérinaire ou Collection de mémoires d'instructions et de recettes sur les maladies des animaux domestiques.
@@ -552,7 +566,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Michael Walters (2003). A Concise History of Ornithology. Yale University Press (New Haven, Connecticut) : 255 p.  (ISBN 0-300-09073-0)</t>
         </is>
